--- a/data/trans_media/Q20C-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q20C-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,08</t>
+          <t>3,63; 7,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 23,54</t>
+          <t>2,6; 22,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,53</t>
+          <t>0,17; 1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,53</t>
+          <t>0,17; 1,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,04</t>
+          <t>2,15; 5,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 22,14</t>
+          <t>3,22; 20,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 16,8</t>
+          <t>1,7; 17,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 16,7</t>
+          <t>4,4; 17,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,09</t>
+          <t>4,78; 15,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,51</t>
+          <t>2,76; 9,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,7</t>
+          <t>3,02; 6,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,87</t>
+          <t>3,15; 13,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 10,93</t>
+          <t>3,1; 10,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,02</t>
+          <t>4,56; 12,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,63</t>
+          <t>4,65; 11,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,59</t>
+          <t>1,7; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,9</t>
+          <t>2,69; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,64</t>
+          <t>3,6; 10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,92</t>
+          <t>2,84; 5,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,92</t>
+          <t>4,87; 9,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,71</t>
+          <t>3,33; 8,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,01</t>
+          <t>2,76; 5,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,0</t>
+          <t>4,74; 8,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,18</t>
+          <t>3,99; 7,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,87</t>
+          <t>3,39; 8,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,38</t>
+          <t>2,37; 4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,42</t>
+          <t>2,41; 8,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,67</t>
+          <t>2,69; 6,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,43</t>
+          <t>3,55; 10,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,56</t>
+          <t>3,59; 7,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,38</t>
+          <t>3,5; 6,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,84</t>
+          <t>3,18; 7,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,22</t>
+          <t>3,72; 7,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 23,57</t>
+          <t>5,42; 25,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,9</t>
+          <t>2,68; 4,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 40,65</t>
+          <t>4,77; 35,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,12</t>
+          <t>3,11; 10,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,81</t>
+          <t>3,6; 8,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,17</t>
+          <t>4,44; 11,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 14,79</t>
+          <t>5,08; 14,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,28</t>
+          <t>3,61; 6,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 21,01</t>
+          <t>5,82; 18,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,46</t>
+          <t>4,86; 11,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,74</t>
+          <t>4,16; 7,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,95</t>
+          <t>5,65; 14,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,37; 6,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,89</t>
+          <t>4,36; 7,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>4,92; 8,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,94</t>
+          <t>4,33; 7,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,71</t>
+          <t>4,56; 6,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,23</t>
+          <t>5,65; 9,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
